--- a/11_iOSApp開発/001_ニートいじり/01_設計書/アイテム別ステージと行動パターン.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/アイテム別ステージと行動パターン.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="45" windowWidth="26955" windowHeight="13230"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="行動パターン" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>ステージ</t>
     <phoneticPr fontId="1"/>
@@ -550,6 +550,66 @@
     <rPh sb="17" eb="18">
       <t>アン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定点でキョロキョロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じはんきで小銭あさり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うんこをひろった・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100円玉をひろった！</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふんばる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイレそうじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読書する</t>
+    <rPh sb="0" eb="2">
+      <t>ドクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>便所メシ</t>
+    <rPh sb="0" eb="2">
+      <t>ベンジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいどころ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にわさき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ものおき</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -592,7 +652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +662,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0066FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +745,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,13 +1059,13 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.75" bestFit="1" customWidth="1"/>
@@ -1365,25 +1434,41 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1393,8 +1478,12 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1405,8 +1494,12 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1417,8 +1510,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1430,7 +1527,9 @@
         <v>21</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1442,7 +1541,9 @@
         <v>22</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1454,7 +1555,9 @@
         <v>23</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1466,7 +1569,9 @@
         <v>24</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1478,7 +1583,9 @@
         <v>25</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1490,7 +1597,9 @@
         <v>26</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1502,7 +1611,9 @@
         <v>27</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1514,7 +1625,9 @@
         <v>28</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1526,7 +1639,9 @@
         <v>29</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>

--- a/11_iOSApp開発/001_ニートいじり/01_設計書/アイテム別ステージと行動パターン.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/アイテム別ステージと行動パターン.xlsx
@@ -510,10 +510,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>もえアニメをみてしまった・・・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>曇りで星はみえなかった・・・</t>
     <rPh sb="0" eb="1">
       <t>クモ</t>
@@ -610,6 +606,10 @@
   </si>
   <si>
     <t>ものおき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もえアニメをみてしまった・・・</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1075,7 +1075,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1119,7 +1119,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>50</v>
@@ -1426,10 +1426,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="3"/>
     </row>
@@ -1439,19 +1439,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1461,10 +1461,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -1479,10 +1479,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1495,10 +1495,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1511,10 +1511,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
